--- a/Machine learning/stationary_dataset.xlsx
+++ b/Machine learning/stationary_dataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="126">
   <si>
     <t>Request</t>
   </si>
@@ -170,15 +170,6 @@
     <t>want stapler</t>
   </si>
   <si>
-    <t>need markin cloth</t>
-  </si>
-  <si>
-    <t>scissor small</t>
-  </si>
-  <si>
-    <t>scissor big</t>
-  </si>
-  <si>
     <t>need permanent pen marker</t>
   </si>
   <si>
@@ -300,6 +291,117 @@
   </si>
   <si>
     <t>want to purchase stationary item</t>
+  </si>
+  <si>
+    <t>need notebooks medium size</t>
+  </si>
+  <si>
+    <t>want basic stationary items like eraser sharpner</t>
+  </si>
+  <si>
+    <t>want practical file</t>
+  </si>
+  <si>
+    <t>I need file with thread</t>
+  </si>
+  <si>
+    <t>I want loose sheets A4 size</t>
+  </si>
+  <si>
+    <t>I need practice notebook</t>
+  </si>
+  <si>
+    <t>want to purchase card board</t>
+  </si>
+  <si>
+    <t>need a box of paper pins</t>
+  </si>
+  <si>
+    <t>want some paper clips</t>
+  </si>
+  <si>
+    <t>where we buy good quality notebook</t>
+  </si>
+  <si>
+    <t>need marking cloth</t>
+  </si>
+  <si>
+    <t>need scissor big</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> need scissor small</t>
+  </si>
+  <si>
+    <t>need crayons</t>
+  </si>
+  <si>
+    <t>want oil postels</t>
+  </si>
+  <si>
+    <t>need wax colours</t>
+  </si>
+  <si>
+    <t>want some stickers</t>
+  </si>
+  <si>
+    <t>where we get carbon papers?</t>
+  </si>
+  <si>
+    <t>need double sided tape</t>
+  </si>
+  <si>
+    <t>I need higlighter &amp; correction pens</t>
+  </si>
+  <si>
+    <t>I need letter pad</t>
+  </si>
+  <si>
+    <t>want to purchase pocket diary</t>
+  </si>
+  <si>
+    <t>want to buy plastic covers</t>
+  </si>
+  <si>
+    <t>need painting brush</t>
+  </si>
+  <si>
+    <t>where we get poster colour?</t>
+  </si>
+  <si>
+    <t>want to buy chalk</t>
+  </si>
+  <si>
+    <t>nearby shop to take printout</t>
+  </si>
+  <si>
+    <t>need brown cellotape</t>
+  </si>
+  <si>
+    <t>want transparent cellotape big</t>
+  </si>
+  <si>
+    <t>need permanent markers packet</t>
+  </si>
+  <si>
+    <t>want compass and foot square</t>
+  </si>
+  <si>
+    <t>need to buy complete geometry set</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want paper holder</t>
+  </si>
+  <si>
+    <t>I want to buy drafter</t>
+  </si>
+  <si>
+    <t>I want to purchase drawing sheets</t>
+  </si>
+  <si>
+    <t>from where we can buy a sheet holder?</t>
+  </si>
+  <si>
+    <t>I need painting colours</t>
   </si>
 </sst>
 </file>
@@ -626,15 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +942,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1015,7 +1118,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -1023,7 +1126,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1031,7 +1134,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1039,7 +1142,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1047,7 +1150,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -1055,7 +1158,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -1063,7 +1166,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1071,7 +1174,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -1079,7 +1182,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -1087,7 +1190,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -1095,7 +1198,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -1103,7 +1206,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -1111,7 +1214,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -1119,7 +1222,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -1127,7 +1230,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -1135,7 +1238,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -1143,7 +1246,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -1151,7 +1254,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -1159,7 +1262,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -1167,7 +1270,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -1175,7 +1278,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -1183,7 +1286,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -1191,7 +1294,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -1199,7 +1302,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -1207,7 +1310,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -1215,7 +1318,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -1223,7 +1326,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -1231,7 +1334,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -1239,7 +1342,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -1247,7 +1350,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -1255,7 +1358,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1263,7 +1366,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -1271,7 +1374,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -1279,7 +1382,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -1287,7 +1390,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -1295,7 +1398,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -1303,7 +1406,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -1311,7 +1414,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -1319,7 +1422,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -1327,7 +1430,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -1335,7 +1438,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -1343,7 +1446,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -1351,9 +1454,289 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
         <v>2</v>
       </c>
     </row>
